--- a/results/comparacion_intervencion.xlsx
+++ b/results/comparacion_intervencion.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01010362627725403</v>
+        <v>-0.009955443871918159</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01087299500068249</v>
+        <v>-0.01393169545626975</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01077256097813912</v>
+        <v>-0.01073666914847997</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.009831635981206413</v>
+        <v>-0.009427504723583169</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.009518394455296241</v>
+        <v>-0.009957479385316317</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01086955152458825</v>
+        <v>-0.009103833339055512</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.008281780865800017</v>
+        <v>-0.006793585596090016</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.008665365941388298</v>
+        <v>-0.006266838202905899</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.008682664129587896</v>
+        <v>-0.0050297803975312</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008816684995229177</v>
+        <v>-0.01068381966448342</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01119114667944809</v>
+        <v>-0.01303869116588781</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01183213338126502</v>
+        <v>-0.008941449362203039</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.007392131388675037</v>
+        <v>-0.008739862458929831</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.009804022381995799</v>
+        <v>-0.01066304261412772</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.008226224341743877</v>
+        <v>-0.008506083972822816</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01009416223204324</v>
+        <v>-0.00861167224165816</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.009900218819287789</v>
+        <v>-0.004826211048655894</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.006469150664761987</v>
+        <v>-0.005463789175334265</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007793788505156642</v>
+        <v>-0.009389377610860838</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0116801610971715</v>
+        <v>-0.00819523023579579</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.008283806688125575</v>
+        <v>-0.008430613014481144</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.009831635981206413</v>
+        <v>-0.01008509394155098</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01041614271864003</v>
+        <v>-0.008856182440932966</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.007978140263228899</v>
+        <v>-0.006452252698968174</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01095191774699349</v>
+        <v>-0.01133303516253612</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01077253961144463</v>
+        <v>-0.01116084837507642</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01196143416724135</v>
+        <v>-0.009687408757342971</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01021578895833488</v>
+        <v>-0.01043144823756598</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0115328619840817</v>
+        <v>-0.01363044688484704</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01271685772281676</v>
+        <v>-0.009490247765122858</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01173324006605906</v>
+        <v>-0.009942447000736588</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0115328619840817</v>
+        <v>-0.01381878477708911</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01253698453368319</v>
+        <v>-0.009455854899244498</v>
       </c>
     </row>
     <row r="14">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.005285460453687692</v>
+        <v>-0.007000290771523992</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00756095134563894</v>
+        <v>-0.006818456017657021</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.005709312698413663</v>
+        <v>-0.005463789175334265</v>
       </c>
     </row>
     <row r="15">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01710644479932849</v>
+        <v>-0.01669821944417477</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.02140396444029486</v>
+        <v>-0.02014358665896039</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02007763000790901</v>
+        <v>-0.02683519386187376</v>
       </c>
     </row>
     <row r="17">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01897338114259765</v>
+        <v>-0.01622483653386114</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02129941837785153</v>
+        <v>-0.02181412413111803</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02120289092973614</v>
+        <v>-0.0237329045072391</v>
       </c>
     </row>
     <row r="18">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01456915372193124</v>
+        <v>-0.01255472003346816</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01413009858962958</v>
+        <v>-0.01422417861570318</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0152145521013368</v>
+        <v>-0.0122945498651322</v>
       </c>
     </row>
     <row r="20">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009511430994629375</v>
+        <v>-0.01453117908920053</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0124650979388367</v>
+        <v>-0.01124433217183866</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.009174794395025054</v>
+        <v>-0.01099471846360759</v>
       </c>
     </row>
     <row r="21">
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.005247743420792754</v>
+        <v>-0.005589416624073905</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.003712919683577782</v>
+        <v>-0.004370857193168667</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.004141704281514377</v>
+        <v>-0.004001604787775355</v>
       </c>
     </row>
     <row r="22">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01120372947533185</v>
+        <v>-0.01200631968322175</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01522891784736637</v>
+        <v>-0.0204959136909748</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01844777812499043</v>
+        <v>-0.01555916698556196</v>
       </c>
     </row>
     <row r="23">
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01173324006605906</v>
+        <v>-0.0102004337040179</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01152669414458129</v>
+        <v>-0.01358084694146196</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01306817701608649</v>
+        <v>-0.01036616948347654</v>
       </c>
     </row>
     <row r="25">
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.01744157006909461</v>
+        <v>-0.01521008252246407</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01517008656684971</v>
+        <v>-0.03146110378946265</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02605418612271281</v>
+        <v>-0.01519816543778666</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         <v>-0.375</v>
       </c>
       <c r="C27" t="n">
+        <v>-0.02922998497776856</v>
+      </c>
+      <c r="D27" t="n">
         <v>-0.375</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.02858102909393854</v>
       </c>
     </row>
     <row r="28">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.01820891301678768</v>
+        <v>-0.375</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01785671967866308</v>
+        <v>-0.01950600734405783</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02120289092973614</v>
+        <v>-0.02317238731831605</v>
       </c>
     </row>
     <row r="30">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.003601508917623674</v>
+        <v>-0.002342156041873881</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.004799835466639912</v>
+        <v>-0.001289529212858091</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002993508248964458</v>
+        <v>-0.001683512233436235</v>
       </c>
     </row>
     <row r="32">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.01329927810188528</v>
+        <v>-0.0119988814589438</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01218563132824499</v>
+        <v>-0.02195499837051167</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01890249451689359</v>
+        <v>-0.01098612670073578</v>
       </c>
     </row>
     <row r="33">
@@ -953,13 +953,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.004957633562403248</v>
+        <v>-0.005156116635836707</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.007026411961088053</v>
+        <v>-0.004376620663105943</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.005250936900009807</v>
+        <v>-0.003913198142974854</v>
       </c>
     </row>
     <row r="34">
@@ -969,13 +969,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.004692228093260245</v>
+        <v>-0.004813769476952791</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.00746083202400135</v>
+        <v>-0.00448611417114788</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01040353548289953</v>
+        <v>-0.006642332337787387</v>
       </c>
     </row>
     <row r="35">
@@ -985,13 +985,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.009511430994629375</v>
+        <v>-0.01476695163478438</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01193675561235307</v>
+        <v>-0.01124433217183866</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.009174794395025054</v>
+        <v>-0.01099471846360759</v>
       </c>
     </row>
     <row r="36">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.0110439700836275</v>
+        <v>-0.01027612721243024</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.01159091018462793</v>
+        <v>-0.0126785104079079</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01253698453368319</v>
+        <v>-0.009400833951945792</v>
       </c>
     </row>
     <row r="37">
@@ -1033,13 +1033,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.01115574452817078</v>
+        <v>-0.01070774694494035</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01415508973572444</v>
+        <v>-0.01618836845209803</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01192344352750335</v>
+        <v>-0.01337978705647366</v>
       </c>
     </row>
     <row r="39">
@@ -1113,13 +1113,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.009948492367787228</v>
+        <v>-0.009853295109898477</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.01146244676028798</v>
+        <v>-0.009605517112755512</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01077256097813912</v>
+        <v>-0.006566313872218317</v>
       </c>
     </row>
     <row r="44">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.01097262640889278</v>
+        <v>-0.01022486244875408</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01167295904250171</v>
+        <v>-0.01618836845209803</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.007579648328990139</v>
+        <v>-0.01098612670073578</v>
       </c>
     </row>
     <row r="45">
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.01052098840141205</v>
+        <v>-0.01055618781319098</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.010195420116742</v>
+        <v>-0.01311885925616929</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.01305094712265226</v>
+        <v>-0.00932486750855264</v>
       </c>
     </row>
     <row r="49">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.00749055869313326</v>
+        <v>-0.009269348180815741</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01034490999753837</v>
+        <v>-0.00856898081085089</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.009134273905998087</v>
+        <v>-0.009904400593039479</v>
       </c>
     </row>
     <row r="50">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.01897338114259765</v>
+        <v>-0.01622483653386114</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.02129941837785153</v>
+        <v>-0.02181412413111803</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.02156565307031626</v>
+        <v>-0.0237329045072391</v>
       </c>
     </row>
     <row r="51">
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.01581189645270377</v>
+        <v>-0.01122727970822244</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.01366998989315896</v>
+        <v>-0.01588886440632663</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.01604187189260743</v>
+        <v>-0.01646987161217125</v>
       </c>
     </row>
     <row r="52">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.01700221265611906</v>
+        <v>-0.01158572834417173</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01731982525745778</v>
+        <v>-0.01502946007683164</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.018237197100007</v>
+        <v>-0.01993161460661034</v>
       </c>
     </row>
     <row r="53">
@@ -1273,13 +1273,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.01132837164957097</v>
+        <v>-0.01091499427203912</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01140625937123577</v>
+        <v>-0.01515096546340767</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01434225923623616</v>
+        <v>-0.009455854899244498</v>
       </c>
     </row>
     <row r="54">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.009780548910500767</v>
+        <v>-0.009942447000736588</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.01053103838270694</v>
+        <v>-0.01183365005943889</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01118999209910363</v>
+        <v>-0.009545038542365547</v>
       </c>
     </row>
     <row r="60">
@@ -1433,13 +1433,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.01246971134190091</v>
+        <v>-0.01332764620761715</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.01856727971745953</v>
+        <v>-0.01528114659032991</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01524068496907331</v>
+        <v>-0.01674039483387739</v>
       </c>
     </row>
     <row r="64">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.0100449601895847</v>
+        <v>-0.009580915802233301</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.01041614271864003</v>
+        <v>-0.008838535330885891</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01007639905960258</v>
+        <v>-0.006452252698968174</v>
       </c>
     </row>
     <row r="65">
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.005429637624147112</v>
+        <v>-0.004318465619959602</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.002903142259222336</v>
+        <v>-0.0002051689461700075</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.002182103389405425</v>
+        <v>0.003270953249920013</v>
       </c>
     </row>
     <row r="66">
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.002345212771401923</v>
+        <v>-0.002372609167047578</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.002353079033908296</v>
+        <v>-0.002347767784858889</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.002390397059427973</v>
+        <v>-0.00235728119805429</v>
       </c>
     </row>
     <row r="78">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.01040046221413189</v>
+        <v>-0.009852778391675143</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01522415368743125</v>
+        <v>-0.01540393347633752</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01262007506628282</v>
+        <v>-0.01449530787168325</v>
       </c>
     </row>
     <row r="83">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.004692228093260245</v>
+        <v>-0.004813769476952791</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.00746083202400135</v>
+        <v>-0.00448611417114788</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.006113545068601491</v>
+        <v>-0.003521501810915739</v>
       </c>
     </row>
     <row r="84">
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.01751846300021252</v>
+        <v>-0.01728654026203571</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.02052163114544037</v>
+        <v>-0.02201446594646935</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02170982648270138</v>
+        <v>-0.01919257028281756</v>
       </c>
     </row>
     <row r="85">
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.008374603720164905</v>
+        <v>-0.007398346211536972</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.009418809556563275</v>
+        <v>-0.00985936771593075</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.00971801018462053</v>
+        <v>-0.009094306670913321</v>
       </c>
     </row>
     <row r="86">
@@ -1849,13 +1849,13 @@
         </is>
       </c>
       <c r="B89" t="n">
+        <v>-0.0154310012119638</v>
+      </c>
+      <c r="C89" t="n">
         <v>-0.3333333333333333</v>
       </c>
-      <c r="C89" t="n">
-        <v>-0.01851065408893646</v>
-      </c>
       <c r="D89" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.01465861124868842</v>
       </c>
     </row>
     <row r="90">
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.01930044848309447</v>
+        <v>-0.0154310012119638</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01888221941627689</v>
+        <v>-0.02092518706845409</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02154702514742135</v>
+        <v>-0.01555916698556196</v>
       </c>
     </row>
     <row r="91">
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.009457551848935129</v>
+        <v>-0.009660874291597413</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.00972133289266186</v>
+        <v>-0.009656054459278477</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.0105869711847656</v>
+        <v>-0.00717030282670171</v>
       </c>
     </row>
     <row r="95">
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.009609739463636077</v>
+        <v>-0.009660874291597413</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.00972133289266186</v>
+        <v>-0.009656054459278477</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.01090199857591437</v>
+        <v>-0.00717030282670171</v>
       </c>
     </row>
     <row r="96">
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.009517367381916206</v>
+        <v>-0.01453117908920053</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.0124650979388367</v>
+        <v>-0.01124645319575463</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.009183503577944906</v>
+        <v>-0.0109011959003779</v>
       </c>
     </row>
     <row r="100">
@@ -2025,13 +2025,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.009609739463636077</v>
+        <v>-0.0096733684669176</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.01002890390276101</v>
+        <v>-0.008867595196570544</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.01090199857591437</v>
+        <v>-0.007187081598411527</v>
       </c>
     </row>
     <row r="101">
@@ -2041,13 +2041,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.01014535381403024</v>
+        <v>-0.01028482010979754</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.01214184760010879</v>
+        <v>-0.01108641448955419</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.01169817108305606</v>
+        <v>-0.008170213205446222</v>
       </c>
     </row>
     <row r="102">
@@ -2057,13 +2057,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.01014535381403024</v>
+        <v>-0.009331248271306512</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.01215699076899552</v>
+        <v>-0.01337731541962491</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.01173672363322522</v>
+        <v>-0.008488555578853516</v>
       </c>
     </row>
     <row r="103">
@@ -2169,13 +2169,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.002370490673291442</v>
+        <v>-0.002347519248204402</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.002354853932428252</v>
+        <v>-0.002332429255290491</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.002325524674238293</v>
+        <v>-0.002353383459851696</v>
       </c>
     </row>
     <row r="110">
@@ -2281,13 +2281,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.01475723200469737</v>
+        <v>-0.01351932121785877</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.01375619329913713</v>
+        <v>-0.0200381146483881</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.01938138549732358</v>
+        <v>-0.01350842625352922</v>
       </c>
     </row>
     <row r="117">
@@ -2345,13 +2345,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.009584052255690652</v>
+        <v>-0.01023541206612195</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.01147593301904279</v>
+        <v>-0.01343180244970885</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.00988664364013951</v>
+        <v>-0.009832319156819144</v>
       </c>
     </row>
     <row r="121">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.01014847966819616</v>
+        <v>-0.009724713721621078</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.01047987442577593</v>
+        <v>-0.008856182440932966</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.01007917680864237</v>
+        <v>-0.006685577961278165</v>
       </c>
     </row>
     <row r="129">
@@ -2521,13 +2521,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.009674920779970477</v>
+        <v>-0.008578756218619001</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.01123687206105396</v>
+        <v>-0.009581341070937041</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.01032430361163941</v>
+        <v>-0.008430613014481144</v>
       </c>
     </row>
     <row r="132">
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.844609004223534e-05</v>
+        <v>0.001752374772668082</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.0005477531051664582</v>
+        <v>0.001284956938924133</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0001450623253302196</v>
+        <v>0.003270953249920013</v>
       </c>
     </row>
     <row r="135">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.002371221260921053</v>
+        <v>-0.002346432411913194</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.002345589538807939</v>
+        <v>-0.002325338879297302</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.002292326547637009</v>
+        <v>-0.002351501258558432</v>
       </c>
     </row>
     <row r="139">
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.01912621812420361</v>
+        <v>-0.02056290035560481</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.02853495643159563</v>
+        <v>-0.01795268241066952</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.02006014198087204</v>
+        <v>-0.0169289144420115</v>
       </c>
     </row>
     <row r="140">
@@ -2665,13 +2665,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.01153075065940981</v>
+        <v>-0.005529978133710107</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.01251274910019351</v>
+        <v>-0.006607691407311508</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.008568473404338106</v>
+        <v>-0.007211320724957069</v>
       </c>
     </row>
     <row r="141">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.01422081546264999</v>
+        <v>-0.0137070533616725</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.01028077641214376</v>
+        <v>-0.03090367759029526</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.02901722808219467</v>
+        <v>-0.01280886777764966</v>
       </c>
     </row>
     <row r="143">
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.004575744476354388</v>
+        <v>-0.006472728928892772</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.004352082828192864</v>
+        <v>-0.01056187599217119</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.008816424721896124</v>
+        <v>-0.001660608997417056</v>
       </c>
     </row>
     <row r="144">
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.01720414604152795</v>
+        <v>-0.01669821944417477</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.02390168653543643</v>
+        <v>-0.02024482592282066</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.02220174337162131</v>
+        <v>-0.02749246067944</v>
       </c>
     </row>
     <row r="146">
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.01720414604152795</v>
+        <v>-0.01796324063081841</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.02390168653543643</v>
+        <v>-0.02024482592282066</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02220174337162131</v>
+        <v>-0.02749246067944</v>
       </c>
     </row>
     <row r="147">
@@ -2873,13 +2873,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.009984948902173087</v>
+        <v>-0.01019399244594524</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.01189676058127837</v>
+        <v>-0.01352139402359098</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.01205897981218085</v>
+        <v>-0.009427853586848865</v>
       </c>
     </row>
     <row r="154">
@@ -2889,13 +2889,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.003486050309943736</v>
+        <v>-0.004523448418497982</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.006140031850101577</v>
+        <v>-0.00600204441550805</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.005582862578257904</v>
+        <v>-0.004018561370595341</v>
       </c>
     </row>
     <row r="155">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.00337537717409933</v>
+        <v>-0.002022368390460355</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.00479689928904104</v>
+        <v>-0.001280653716941087</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.002452808828582382</v>
+        <v>-0.001684171439220877</v>
       </c>
     </row>
     <row r="157">
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.0004430367555243805</v>
+        <v>0.001629086239803974</v>
       </c>
       <c r="C159" t="n">
-        <v>0.003502483801583125</v>
+        <v>-0.0001969251774860421</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.0004683761653860587</v>
+        <v>0.002182424513229512</v>
       </c>
     </row>
     <row r="160">
@@ -2985,13 +2985,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0004430367555243805</v>
+        <v>0.001629086239803974</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.001895251943246489</v>
+        <v>-0.0001969251774860421</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.002305478244614077</v>
+        <v>0.002182424513229512</v>
       </c>
     </row>
     <row r="161">
@@ -3017,13 +3017,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.009289345185425141</v>
+        <v>-0.009261595001672514</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.008949465052467527</v>
+        <v>-0.008659740915126377</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.009905375124268671</v>
+        <v>-0.007077465940773633</v>
       </c>
     </row>
     <row r="163">
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.01409028623017252</v>
+        <v>-0.01039776549680503</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.01141175140814402</v>
+        <v>-0.0122515341076869</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.01311357287793097</v>
+        <v>-0.01094034985327018</v>
       </c>
     </row>
     <row r="165">
@@ -3129,13 +3129,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.01131495992400218</v>
+        <v>-0.0103424392072234</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.01235594211780054</v>
+        <v>-0.01164190544959533</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.01227378557176977</v>
+        <v>-0.008943019694215466</v>
       </c>
     </row>
     <row r="170">
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.01462158024928847</v>
+        <v>-0.01122727970822244</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.01548154278173673</v>
+        <v>-0.0138363963063836</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.01604187189260743</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="171">
@@ -3161,13 +3161,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.01378279014421413</v>
+        <v>-0.01313764382212397</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.01085597792677563</v>
+        <v>-0.02583777617233257</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.029041162170675</v>
+        <v>-0.01253939123658095</v>
       </c>
     </row>
     <row r="172">
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.01588096004864848</v>
+        <v>-0.01207326711799948</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.01291130287574397</v>
+        <v>-0.01959178451906174</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.01983416838779432</v>
+        <v>-0.01412467314368992</v>
       </c>
     </row>
     <row r="175">
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.003210278178564129</v>
+        <v>-0.001956691962181647</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.004782852408000469</v>
+        <v>-0.00129327604823886</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.001861546361278662</v>
+        <v>-0.001684061064074657</v>
       </c>
     </row>
     <row r="176">
@@ -3289,13 +3289,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.01070838164658307</v>
+        <v>-0.01682789907264947</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.01700908032477133</v>
+        <v>-0.01442906258522079</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.01308128011671292</v>
+        <v>-0.01315990686746383</v>
       </c>
     </row>
     <row r="180">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.01984276353104283</v>
+        <v>-0.01572500887864203</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.01888221941627689</v>
+        <v>-0.02109792779303581</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.02154702514742135</v>
+        <v>-0.022928736040976</v>
       </c>
     </row>
     <row r="182">
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.008004090672812721</v>
+        <v>-0.007118863399778854</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.00735931990992098</v>
+        <v>-0.008381848804471816</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.007405596468569801</v>
+        <v>-0.007255712754943797</v>
       </c>
     </row>
     <row r="190">
@@ -3465,13 +3465,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.008004090672812721</v>
+        <v>-0.007118863399778854</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.00735931990992098</v>
+        <v>-0.008381848804471816</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.007405596468569801</v>
+        <v>-0.007255712754943797</v>
       </c>
     </row>
     <row r="191">
@@ -3497,13 +3497,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.006770691479185297</v>
+        <v>-0.007175402994701208</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.007116718517895615</v>
+        <v>-0.006661824460945731</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.007326335431524444</v>
+        <v>-0.007154964930096893</v>
       </c>
     </row>
     <row r="193">
@@ -3545,13 +3545,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.01047630928088426</v>
+        <v>-0.008448798205314157</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.008069281597702552</v>
+        <v>-0.01230524095656676</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.01327001675460885</v>
+        <v>-0.009177052683662694</v>
       </c>
     </row>
     <row r="196">
@@ -3577,13 +3577,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.01133806608271696</v>
+        <v>-0.0056752765494309</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.01270251285567076</v>
+        <v>-0.006243630639794697</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.008958161038315272</v>
+        <v>-0.007325436351414173</v>
       </c>
     </row>
     <row r="198">
@@ -3593,13 +3593,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6.63900530701392e-05</v>
+        <v>-0.000518857611955532</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.002391873548803686</v>
+        <v>0.0006474641688836574</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.0009720929151335973</v>
+        <v>0.0009444267499136916</v>
       </c>
     </row>
     <row r="199">
@@ -3609,13 +3609,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.0007253587625037112</v>
+        <v>0.002765600917174628</v>
       </c>
       <c r="C199" t="n">
-        <v>0.004177190809329503</v>
+        <v>-0.0002051689461700076</v>
       </c>
       <c r="D199" t="n">
-        <v>0.001107788819947644</v>
+        <v>0.002614696228155883</v>
       </c>
     </row>
     <row r="200">
@@ -3625,13 +3625,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.01011531434553584</v>
+        <v>-0.0144192878036253</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.01330628952248278</v>
+        <v>-0.01202522897905671</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.01224670432522465</v>
+        <v>-0.01473721926765909</v>
       </c>
     </row>
     <row r="201">
@@ -3769,13 +3769,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-0.01026915871707362</v>
+        <v>-0.008062638328873249</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.00676806206392754</v>
+        <v>-0.0114970762327965</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.01140190517035675</v>
+        <v>-0.006940971398817603</v>
       </c>
     </row>
     <row r="210">
@@ -3785,13 +3785,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.006178655492256954</v>
+        <v>-0.006668229164786766</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.007765430742575114</v>
+        <v>-0.005909874944172985</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.008523298362558</v>
+        <v>-0.005512819934600984</v>
       </c>
     </row>
     <row r="211">
@@ -3801,13 +3801,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-0.0102593792322841</v>
+        <v>-0.008061824666978416</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.006775142213370512</v>
+        <v>-0.01137370876257464</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.01139894636326381</v>
+        <v>-0.006940945679586439</v>
       </c>
     </row>
     <row r="212">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.006172195146147057</v>
+        <v>-0.008337884992404487</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.01113266801429347</v>
+        <v>-0.008127485376089517</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.01063424814813651</v>
+        <v>-0.008136037750989112</v>
       </c>
     </row>
     <row r="218">
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.001868313143948222</v>
+        <v>-0.002354138154225039</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.005022551722217758</v>
+        <v>-0.002035218391332692</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.005000081063624324</v>
+        <v>-0.00350692073238297</v>
       </c>
     </row>
     <row r="223">
@@ -4025,13 +4025,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.01152903407340942</v>
+        <v>-0.006157313227347654</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.01185070474282902</v>
+        <v>-0.006508659894192385</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.009340435218294998</v>
+        <v>-0.007224312879949247</v>
       </c>
     </row>
     <row r="226">
@@ -4169,13 +4169,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-0.01691104231492956</v>
+        <v>-0.01421023300839159</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.02014031682316969</v>
+        <v>-0.01993763310615264</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.02007763000790901</v>
+        <v>-0.02265342176254446</v>
       </c>
     </row>
     <row r="235">
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-0.01581189645270377</v>
+        <v>-0.01110101675842194</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.01635165569180805</v>
+        <v>-0.01588886440632663</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.0161614583056724</v>
+        <v>-0.01897775560786904</v>
       </c>
     </row>
     <row r="236">
@@ -4217,13 +4217,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.004121145950024174</v>
+        <v>-0.003160023207097538</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.006242552083692716</v>
+        <v>-0.002161710240055259</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.003672094143568791</v>
+        <v>-0.002308720540538088</v>
       </c>
     </row>
     <row r="238">
@@ -4249,13 +4249,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-0.008281780865800017</v>
+        <v>-0.006793585596090016</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.008665365941388298</v>
+        <v>-0.00674452246284004</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.008682664129587896</v>
+        <v>-0.006020912402864459</v>
       </c>
     </row>
     <row r="240">
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-0.007704723446182396</v>
+        <v>-0.004958739498228355</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.009583125460983149</v>
+        <v>-0.007447894112647563</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.008353846169100534</v>
+        <v>-0.003531436871027607</v>
       </c>
     </row>
     <row r="241">
@@ -4329,13 +4329,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.0115785781508925</v>
+        <v>-0.01102282623056415</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.01391047927841801</v>
+        <v>-0.01584947376882373</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.01201656604020063</v>
+        <v>-0.01306822345051227</v>
       </c>
     </row>
     <row r="245">
@@ -4409,13 +4409,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-0.02034017937448859</v>
+        <v>-0.0176595193030753</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.02519240762403616</v>
+        <v>-0.02220205135525016</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.02431540202170672</v>
+        <v>-0.02603982271174409</v>
       </c>
     </row>
     <row r="250">
@@ -4473,13 +4473,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.01134783938219518</v>
+        <v>-0.01058456034156971</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.01052699988403865</v>
+        <v>-0.01390999657107791</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.01234292651472403</v>
+        <v>-0.008611799754442259</v>
       </c>
     </row>
     <row r="254">
@@ -4489,13 +4489,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-0.008427024696984621</v>
+        <v>-0.00932240127670295</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.01013971092275328</v>
+        <v>-0.009106281837198776</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.009469031772078439</v>
+        <v>-0.009441972754750446</v>
       </c>
     </row>
     <row r="255">
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.009586547047168716</v>
+        <v>-0.01479051425046133</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.01303533415925347</v>
+        <v>-0.01122029742095212</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.009175870091183928</v>
+        <v>-0.01124185635053573</v>
       </c>
     </row>
     <row r="260">
@@ -4585,13 +4585,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.00963371984753713</v>
+        <v>-0.01049005389486427</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.01098832409450987</v>
+        <v>-0.01381878477708911</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.01232631549969741</v>
+        <v>-0.009850344758897248</v>
       </c>
     </row>
     <row r="261">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.01823726428767096</v>
+        <v>-0.01659122541024038</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.02140396444029486</v>
+        <v>-0.02127066851761752</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.02332745720714827</v>
+        <v>-0.02552066022674128</v>
       </c>
     </row>
     <row r="268">
@@ -4793,13 +4793,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.01252068827925625</v>
+        <v>-0.01255472003346816</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.01389964270161654</v>
+        <v>-0.01257595807828262</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.01505675445701296</v>
+        <v>-0.01356362460064523</v>
       </c>
     </row>
     <row r="274">
@@ -4809,13 +4809,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.01399256313312066</v>
+        <v>-0.01338433012359937</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.01896902505955988</v>
+        <v>-0.01723033601425256</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.01543748016530025</v>
+        <v>-0.01483269933615827</v>
       </c>
     </row>
     <row r="275">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.00396895413684833</v>
+        <v>-0.002795317927862342</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.005754923846584756</v>
+        <v>-0.002527109018469364</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.002733465391662152</v>
+        <v>-0.001801427835480366</v>
       </c>
     </row>
     <row r="278">
@@ -4873,13 +4873,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.009531113641790011</v>
+        <v>-0.01488796506836351</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.01248457776355054</v>
+        <v>-0.0112471675758329</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.009183103871035943</v>
+        <v>-0.01098248783926238</v>
       </c>
     </row>
     <row r="279">
@@ -4921,13 +4921,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.005914608143684396</v>
+        <v>-0.008089598630008802</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.01094889707561891</v>
+        <v>-0.00819523023579579</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.006111766806177674</v>
+        <v>-0.009199716616048362</v>
       </c>
     </row>
     <row r="282">
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.007877839020458136</v>
+        <v>-0.009355368369089848</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.009518394455296241</v>
+        <v>-0.01149361247886287</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.01045738140976205</v>
+        <v>-0.01026873640838398</v>
       </c>
     </row>
     <row r="285">
@@ -4985,13 +4985,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.008630657938554311</v>
+        <v>-0.008387987695518927</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.009756231650478535</v>
+        <v>-0.01004749649415945</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.008317612264425688</v>
+        <v>-0.01139501592420339</v>
       </c>
     </row>
     <row r="286">
@@ -5033,13 +5033,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.004426822624117241</v>
+        <v>-0.004471422318068876</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.006242552083692716</v>
+        <v>-0.004483853936658204</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.006113545068601491</v>
+        <v>-0.004038648392197941</v>
       </c>
     </row>
     <row r="289">
@@ -5049,13 +5049,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.01009291660592619</v>
+        <v>-0.01093218505949998</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.01030446845999591</v>
+        <v>-0.01116084837507642</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.01086955152458825</v>
+        <v>-0.009028447722096987</v>
       </c>
     </row>
     <row r="290">
@@ -5065,13 +5065,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.004413893879853413</v>
+        <v>-0.004779271638961777</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.007745957559360191</v>
+        <v>-0.006947289576250905</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.005529754417077702</v>
+        <v>-0.005463974817109401</v>
       </c>
     </row>
     <row r="291">
@@ -5081,13 +5081,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.006736636173630679</v>
+        <v>-0.009126164008370918</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.009061589556079358</v>
+        <v>-0.01018358779005972</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.007176139151358729</v>
+        <v>-0.009856067038539654</v>
       </c>
     </row>
     <row r="292">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.004789843410122973</v>
+        <v>-0.007300743431431313</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.008165701778341066</v>
+        <v>-0.002870051272973903</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.006310010793508469</v>
+        <v>-0.002433889364966044</v>
       </c>
     </row>
     <row r="293">
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.004595717577193429</v>
+        <v>-0.006015730755362514</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.007557470279720481</v>
+        <v>-0.00820342792977528</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.005550814784138285</v>
+        <v>-0.00497536444787283</v>
       </c>
     </row>
     <row r="294">
@@ -5129,13 +5129,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.005212694773866379</v>
+        <v>-0.004719078862371983</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.005428533740928039</v>
+        <v>-0.008034830641357961</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.005029046332770884</v>
+        <v>-0.00594030960927904</v>
       </c>
     </row>
     <row r="295">
@@ -5145,13 +5145,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.01095191774699349</v>
+        <v>-0.0119988814589438</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.01105398909420844</v>
+        <v>-0.02195499837051167</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.01829489889132388</v>
+        <v>-0.009687408757342971</v>
       </c>
     </row>
     <row r="296">
@@ -5161,13 +5161,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.01019442830073738</v>
+        <v>-0.01133303516253612</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.01179994254861977</v>
+        <v>-0.01435700617993543</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.01196143416724135</v>
+        <v>-0.009647937376043688</v>
       </c>
     </row>
     <row r="297">
@@ -5177,13 +5177,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.01399256313312066</v>
+        <v>-0.01091320673091008</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.01213718670560377</v>
+        <v>-0.0122515341076869</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.01311357287793097</v>
+        <v>-0.01094034985327018</v>
       </c>
     </row>
     <row r="298">
@@ -5273,13 +5273,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.01073291090544906</v>
+        <v>-0.009621313789128349</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.01022299340864313</v>
+        <v>-0.01412564726726189</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.0122609128056231</v>
+        <v>-0.009706617856834545</v>
       </c>
     </row>
     <row r="304">
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.005001088702575238</v>
+        <v>-0.005434290382367051</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.008752241172163024</v>
+        <v>-0.008159528170397584</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.009165585624536792</v>
+        <v>-0.009056995961783757</v>
       </c>
     </row>
     <row r="305">
@@ -5305,13 +5305,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.005562728821480706</v>
+        <v>-0.008577814147068112</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.009442352527975992</v>
+        <v>-0.009165513705857078</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.008283806688125575</v>
+        <v>-0.009490135165815129</v>
       </c>
     </row>
     <row r="306">
@@ -5321,13 +5321,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.008349848750214066</v>
+        <v>-0.008912299539419154</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.01041876505373991</v>
+        <v>-0.008016985718643305</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.008348625530750525</v>
+        <v>-0.008582579482102896</v>
       </c>
     </row>
     <row r="307">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.01026142494335668</v>
+        <v>-0.01057810728927251</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.01118548635444234</v>
+        <v>-0.01399593707877329</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.01293109833542292</v>
+        <v>-0.008087714959772316</v>
       </c>
     </row>
     <row r="308">
@@ -5353,13 +5353,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.00498523589105945</v>
+        <v>-0.004870680800687317</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.003712919683577782</v>
+        <v>-0.01083700997488839</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.002446919063995757</v>
+        <v>-0.004256344479359747</v>
       </c>
     </row>
     <row r="309">
@@ -5369,13 +5369,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.00471625011372431</v>
+        <v>-0.006403445243463068</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.005934518464768558</v>
+        <v>-0.00632515337487009</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.005132098352098088</v>
+        <v>-0.007000263283701642</v>
       </c>
     </row>
     <row r="310">
@@ -5385,13 +5385,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.004569111251680518</v>
+        <v>-0.005806085800069319</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.004265643423873046</v>
+        <v>-0.00537755204569653</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.005450987710257107</v>
+        <v>-0.004741547184486767</v>
       </c>
     </row>
     <row r="311">
@@ -5401,13 +5401,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.005005147715756566</v>
+        <v>-0.00243609646568912</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.004050827988127628</v>
+        <v>-0.005867645575726207</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.003897426692063107</v>
+        <v>-0.01123520392029611</v>
       </c>
     </row>
     <row r="312">
@@ -5417,13 +5417,13 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-0.005099302907428466</v>
+        <v>-0.004564138893745634</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.002065207457516523</v>
+        <v>-0.004370857193168667</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.00283995704547281</v>
+        <v>-0.00433736905962236</v>
       </c>
     </row>
     <row r="313">
@@ -5433,13 +5433,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.004797998026011397</v>
+        <v>-0.006340849791459112</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.004168006612657029</v>
+        <v>-0.002744683431459552</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.00283545561884297</v>
+        <v>-0.004690296998514372</v>
       </c>
     </row>
     <row r="314">
@@ -5449,13 +5449,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-0.006035137133996945</v>
+        <v>-0.00257328177774658</v>
       </c>
       <c r="C314" t="n">
-        <v>-0.00446793870223253</v>
+        <v>-0.004331977667782696</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.003672094143568791</v>
+        <v>-0.002308720540538088</v>
       </c>
     </row>
     <row r="315">
@@ -5465,13 +5465,13 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-0.01246971134190091</v>
+        <v>-0.009852778391675143</v>
       </c>
       <c r="C315" t="n">
-        <v>-0.01522891784736637</v>
+        <v>-0.01442906258522079</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.01114158647337871</v>
+        <v>-0.01337978705647366</v>
       </c>
     </row>
     <row r="316">
@@ -5481,13 +5481,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.008816684995229177</v>
+        <v>-0.01068381966448342</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.01119114667944809</v>
+        <v>-0.0122930038684766</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.01183213338126502</v>
+        <v>-0.008941449362203039</v>
       </c>
     </row>
     <row r="317">
@@ -5497,13 +5497,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.01744157006909461</v>
+        <v>-0.01521008252246407</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.01517008656684971</v>
+        <v>-0.03146110378946265</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.0257821832748282</v>
+        <v>-0.01519816543778666</v>
       </c>
     </row>
     <row r="318">
@@ -5529,13 +5529,13 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.02020927150526204</v>
+        <v>-0.0176595193030753</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.02146169287354548</v>
+        <v>-0.02109792779303581</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.02332745720714827</v>
+        <v>-0.02603982271174409</v>
       </c>
     </row>
     <row r="320">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.006881174785295624</v>
+        <v>-0.004729752208610877</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.006981662354893177</v>
+        <v>-0.004376620663105943</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.005253796728575374</v>
+        <v>-0.003527454827575256</v>
       </c>
     </row>
     <row r="323">
@@ -5593,13 +5593,13 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.005262941145045094</v>
+        <v>-0.008133616473132408</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.002893152791180333</v>
+        <v>-0.004105937944140391</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.002758531421254473</v>
+        <v>-0.005375928283478957</v>
       </c>
     </row>
     <row r="324">
@@ -5609,13 +5609,13 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-0.00582124827055875</v>
+        <v>-0.004872192931378239</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.003790044479583996</v>
+        <v>-0.005260810494237044</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.004141704281514377</v>
+        <v>-0.004196103917498242</v>
       </c>
     </row>
     <row r="325">
@@ -5625,13 +5625,13 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-0.005367562094328997</v>
+        <v>-0.005589416624073905</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.003161679574726517</v>
+        <v>-0.003935410888966907</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.002566755513137685</v>
+        <v>-0.004366357431230789</v>
       </c>
     </row>
     <row r="326">
@@ -5641,13 +5641,13 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.01475723200469737</v>
+        <v>-0.01207326711799948</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.01375619329913713</v>
+        <v>-0.01959178451906174</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.01983416838779432</v>
+        <v>-0.01646987161217125</v>
       </c>
     </row>
     <row r="327">
@@ -5689,13 +5689,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.008748870553000117</v>
+        <v>-0.008809593327433727</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.01009684476680718</v>
+        <v>-0.01032257774071353</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.01070762203502699</v>
+        <v>-0.006156814706498207</v>
       </c>
     </row>
     <row r="330">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.007871862739584869</v>
+        <v>-0.009826815274453306</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.01107122982302219</v>
+        <v>-0.009605517112755512</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.009695264674142223</v>
+        <v>-0.006566313872218317</v>
       </c>
     </row>
     <row r="331">
@@ -5721,13 +5721,13 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-0.0004038608732632206</v>
+        <v>-0.002202390232281733</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.002391873548803686</v>
+        <v>-0.006625590441168074</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.002760893565448436</v>
+        <v>0.0009444267499136916</v>
       </c>
     </row>
     <row r="332">
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-0.002370977731711183</v>
+        <v>-0.002346432411913194</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.002353079033908296</v>
+        <v>-0.002347767784858889</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.002325524674238293</v>
+        <v>-0.002351501258558432</v>
       </c>
     </row>
     <row r="335">
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.007704723446182396</v>
+        <v>-0.005094450441509845</v>
       </c>
       <c r="C335" t="n">
-        <v>-0.009583125460983149</v>
+        <v>-0.004049149723562285</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.005493906293993472</v>
+        <v>-0.005101510300883468</v>
       </c>
     </row>
     <row r="336">
@@ -5801,13 +5801,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-0.006893639905628087</v>
+        <v>-0.004759613719523006</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.006157571835261457</v>
+        <v>-0.002966444493268143</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.005250936900009807</v>
+        <v>-0.003913198142974854</v>
       </c>
     </row>
     <row r="337">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.00749055869313326</v>
+        <v>-0.009258737561638298</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.01030767488172972</v>
+        <v>-0.008457278558561777</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.009134273905998087</v>
+        <v>-0.009904400593039479</v>
       </c>
     </row>
     <row r="338">
@@ -5881,13 +5881,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>-0.005606947192254022</v>
+        <v>-0.0007970589147225609</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.008234039598162012</v>
+        <v>-0.004826211048655894</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.005008875401796209</v>
+        <v>-0.005348883220609178</v>
       </c>
     </row>
     <row r="342">
@@ -5913,13 +5913,13 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>-0.01026915871707362</v>
+        <v>-0.008062638328873249</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.00676806206392754</v>
+        <v>-0.0114970762327965</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.01139894636326381</v>
+        <v>-0.009177052683662694</v>
       </c>
     </row>
     <row r="344">
@@ -5929,13 +5929,13 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-0.01378367815563105</v>
+        <v>-0.01332764620761715</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.01856727971745953</v>
+        <v>-0.01952572600053714</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.01524068496907331</v>
+        <v>-0.01967969306841525</v>
       </c>
     </row>
     <row r="345">
@@ -5945,13 +5945,13 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-0.0100449601895847</v>
+        <v>-0.009580915802233301</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.01080460320372046</v>
+        <v>-0.008838535330885891</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.01007639905960258</v>
+        <v>-0.006218927436658184</v>
       </c>
     </row>
     <row r="346">
@@ -5961,13 +5961,13 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-0.001056635385901508</v>
+        <v>0.001557061206026041</v>
       </c>
       <c r="C346" t="n">
-        <v>0.002344298523412435</v>
+        <v>-0.0002921603193167385</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.002182103389405425</v>
+        <v>-0.000934034172050351</v>
       </c>
     </row>
     <row r="347">
@@ -6041,13 +6041,13 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-0.01912621812420361</v>
+        <v>-0.02056290035560481</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.02853495643159563</v>
+        <v>-0.01723033601425256</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.02006014198087204</v>
+        <v>-0.0169289144420115</v>
       </c>
     </row>
     <row r="352">
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>-0.003188366538914753</v>
+        <v>-0.005803334687075671</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.00460597940414345</v>
+        <v>-0.003107555430448715</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.002261768139969139</v>
+        <v>-0.004342740105730842</v>
       </c>
     </row>
     <row r="355">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>-0.002346146052440375</v>
+        <v>-0.002372609167047578</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.00238370635796072</v>
+        <v>-0.002410279680714496</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.002426979072801724</v>
+        <v>-0.002365076674459477</v>
       </c>
     </row>
     <row r="357">
@@ -6217,13 +6217,13 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>-0.002345212771401923</v>
+        <v>-0.002370912542569855</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.002369293763931295</v>
+        <v>-0.002387023931063509</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.002390397059427973</v>
+        <v>-0.002369491406580348</v>
       </c>
     </row>
     <row r="363">
@@ -6233,13 +6233,13 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>-0.01836368831150416</v>
+        <v>-0.01755164759576235</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.021685661137007</v>
+        <v>-0.02227428065384739</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.02170982648270138</v>
+        <v>-0.01907960602975171</v>
       </c>
     </row>
     <row r="364">
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>-0.01790316053569977</v>
+        <v>-0.0168523097761189</v>
       </c>
       <c r="C364" t="n">
-        <v>-0.02171089005531974</v>
+        <v>-0.02154764523510858</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.02430970433109371</v>
+        <v>-0.01925489197367937</v>
       </c>
     </row>
     <row r="365">
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>-0.008651536084827671</v>
+        <v>-0.009768170282886991</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.00903079573592792</v>
+        <v>-0.01006068551290559</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.009622647244710032</v>
+        <v>-0.008169922924451596</v>
       </c>
     </row>
     <row r="366">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>-0.008521148252683934</v>
+        <v>-0.008607867442430884</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.008584563450113134</v>
+        <v>-0.00985936771593075</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.008807516536758105</v>
+        <v>-0.009094306670913321</v>
       </c>
     </row>
     <row r="367">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>-0.008560249428894681</v>
+        <v>-0.009268287487071227</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.009319295526797191</v>
+        <v>-0.009325697955377021</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.00971801018462053</v>
+        <v>-0.007301105715930577</v>
       </c>
     </row>
     <row r="368">
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>-0.01539004127282548</v>
+        <v>-0.01553749153782986</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.01504530938931843</v>
+        <v>-0.01361860403216776</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.01779910763909908</v>
+        <v>-0.01447862458109372</v>
       </c>
     </row>
     <row r="370">
@@ -6361,13 +6361,13 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>-0.01553004907427996</v>
+        <v>-0.01338433012359937</v>
       </c>
       <c r="C371" t="n">
-        <v>-0.01896902505955988</v>
+        <v>-0.01257432546037333</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.01516680711814744</v>
+        <v>-0.01356362460064523</v>
       </c>
     </row>
     <row r="372">
@@ -6377,13 +6377,13 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>-0.01513699354528557</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.01851065408893646</v>
+        <v>0</v>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-0.01735361291861513</v>
       </c>
     </row>
     <row r="373">
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>-0.002347442006212939</v>
+        <v>-0.002370411349148924</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.002371997722169456</v>
+        <v>-0.002406159084907388</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.002424448892893608</v>
+        <v>-0.002370070214974039</v>
       </c>
     </row>
     <row r="374">
@@ -6473,13 +6473,13 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>-0.01709813106026267</v>
+        <v>-0.01158572834417173</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.01731982525745778</v>
+        <v>-0.01921228165193045</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.018237197100007</v>
+        <v>-0.01993161460661034</v>
       </c>
     </row>
     <row r="379">
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>-0.009508045822562103</v>
+        <v>-0.01028482010979754</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.012005465219893</v>
+        <v>-0.01108641448955419</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.01139034527516663</v>
+        <v>-0.008043964072303671</v>
       </c>
     </row>
     <row r="380">
@@ -6505,13 +6505,13 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-0.009430499976550977</v>
+        <v>-0.01030298657634274</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.01214184760010879</v>
+        <v>-0.01127218195315536</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.01166259046976438</v>
+        <v>-0.008170213205446222</v>
       </c>
     </row>
     <row r="381">
@@ -6633,13 +6633,13 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-0.004539081968349025</v>
+        <v>-0.006200518252752167</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.006151120951319493</v>
+        <v>-0.006582129920255435</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.004484405698843525</v>
+        <v>-0.002639290802473612</v>
       </c>
     </row>
     <row r="389">
@@ -6665,13 +6665,13 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-0.01079103417737955</v>
+        <v>-0.01330489242150316</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.01607889534146953</v>
+        <v>-0.01878250709732798</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.01760463116518638</v>
+        <v>-0.01141315968773895</v>
       </c>
     </row>
     <row r="391">
@@ -6713,13 +6713,13 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>-0.007013651716426421</v>
+        <v>-0.006298625627747951</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.009516013905935039</v>
+        <v>-0.005687257729077895</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.00668334415486393</v>
+        <v>-0.008073630671062509</v>
       </c>
     </row>
     <row r="394">
@@ -6729,13 +6729,13 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-0.01621518590750945</v>
+        <v>-0.0132840231918525</v>
       </c>
       <c r="C394" t="n">
-        <v>-0.01602014282833406</v>
+        <v>-0.0200381146483881</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.02059540878357339</v>
+        <v>-0.01446760852103158</v>
       </c>
     </row>
     <row r="395">
@@ -6793,13 +6793,13 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>-0.009584052255690652</v>
+        <v>-0.01023541206612195</v>
       </c>
       <c r="C398" t="n">
-        <v>-0.01109117847332019</v>
+        <v>-0.01272860614645801</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.0125440058508645</v>
+        <v>-0.008455387133829543</v>
       </c>
     </row>
     <row r="399">
@@ -6857,13 +6857,13 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-0.01831616676419244</v>
+        <v>-0.01728654026203571</v>
       </c>
       <c r="C402" t="n">
-        <v>-0.02151688117907208</v>
+        <v>-0.02235807752790515</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.02432392359815084</v>
+        <v>-0.01919257028281756</v>
       </c>
     </row>
     <row r="403">
@@ -6905,13 +6905,13 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>-0.008697968988735993</v>
+        <v>-0.007211948682521035</v>
       </c>
       <c r="C405" t="n">
-        <v>-0.01287599034538222</v>
+        <v>-0.009581341070937041</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.01001435907514231</v>
+        <v>-0.009232019306532523</v>
       </c>
     </row>
     <row r="406">
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>-0.007793788505156642</v>
+        <v>-0.0092007367717605</v>
       </c>
       <c r="C406" t="n">
-        <v>-0.004348143841464002</v>
+        <v>-0.00809125596233547</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.006603061904199096</v>
+        <v>-0.007350745391226156</v>
       </c>
     </row>
     <row r="407">
@@ -7049,13 +7049,13 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.0008222509425881821</v>
+        <v>0.001752374772668082</v>
       </c>
       <c r="C414" t="n">
-        <v>0.002815526364865267</v>
+        <v>0.001284956938924133</v>
       </c>
       <c r="D414" t="n">
-        <v>-0.0001450623253302196</v>
+        <v>0.003638217356453188</v>
       </c>
     </row>
     <row r="415">
@@ -7065,13 +7065,13 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>6.639005307013915e-05</v>
+        <v>-0.000518857611955532</v>
       </c>
       <c r="C415" t="n">
-        <v>0.00175865556248459</v>
+        <v>0.0006474641688836574</v>
       </c>
       <c r="D415" t="n">
-        <v>-0.00046168624155643</v>
+        <v>0.00234693265063944</v>
       </c>
     </row>
     <row r="416">
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>-0.002371221260921053</v>
+        <v>-0.00234099823045716</v>
       </c>
       <c r="C416" t="n">
-        <v>-0.002336325145187626</v>
+        <v>-0.002311158127310923</v>
       </c>
       <c r="D416" t="n">
-        <v>-0.002292326547637009</v>
+        <v>-0.002349619057265168</v>
       </c>
     </row>
     <row r="417">
@@ -7097,13 +7097,13 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>-0.01153075065940981</v>
+        <v>-0.005934444742682241</v>
       </c>
       <c r="C417" t="n">
-        <v>-0.01232298534471626</v>
+        <v>-0.006607691407311508</v>
       </c>
       <c r="D417" t="n">
-        <v>-0.009132771974918744</v>
+        <v>-0.006983089472042861</v>
       </c>
     </row>
     <row r="418">
@@ -7113,13 +7113,13 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>-0.01152903407340942</v>
+        <v>-0.0056752765494309</v>
       </c>
       <c r="C418" t="n">
-        <v>-0.01251274910019351</v>
+        <v>-0.006508659894192385</v>
       </c>
       <c r="D418" t="n">
-        <v>-0.008958161038315272</v>
+        <v>-0.007325436351414173</v>
       </c>
     </row>
     <row r="419">
@@ -7129,13 +7129,13 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>-0.01422081546264999</v>
+        <v>-0.0137070533616725</v>
       </c>
       <c r="C419" t="n">
-        <v>-0.01028077641214376</v>
+        <v>-0.03090367759029526</v>
       </c>
       <c r="D419" t="n">
-        <v>-0.029041162170675</v>
+        <v>-0.01280886777764966</v>
       </c>
     </row>
     <row r="420">
@@ -7145,13 +7145,13 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>-0.004575744476354388</v>
+        <v>-0.006472728928892772</v>
       </c>
       <c r="C420" t="n">
-        <v>-0.004352082828192864</v>
+        <v>-0.01056187599217119</v>
       </c>
       <c r="D420" t="n">
-        <v>-0.008816424721896124</v>
+        <v>-0.001660608997417056</v>
       </c>
     </row>
     <row r="421">
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>-0.01070838164658307</v>
+        <v>-0.01682789907264947</v>
       </c>
       <c r="C421" t="n">
-        <v>-0.01700908032477133</v>
+        <v>-0.01370962992901527</v>
       </c>
       <c r="D421" t="n">
-        <v>-0.01308128011671292</v>
+        <v>-0.01325159028441538</v>
       </c>
     </row>
     <row r="422">
@@ -7193,13 +7193,13 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>-0.001344403024159718</v>
+        <v>-0.00617776293986351</v>
       </c>
       <c r="C423" t="n">
-        <v>-0.007436532647954862</v>
+        <v>-0.003608817891810078</v>
       </c>
       <c r="D423" t="n">
-        <v>-0.006212685756618971</v>
+        <v>-0.001839656986798806</v>
       </c>
     </row>
     <row r="424">
@@ -7241,13 +7241,13 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>-0.008862410027535947</v>
+        <v>-0.006797174565024443</v>
       </c>
       <c r="C426" t="n">
-        <v>-0.01123687206105396</v>
+        <v>-0.009591100587302587</v>
       </c>
       <c r="D426" t="n">
-        <v>-0.007937479509244921</v>
+        <v>-0.01007119113860655</v>
       </c>
     </row>
     <row r="427">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>-0.006345406830624698</v>
+        <v>-0.006051335790296998</v>
       </c>
       <c r="C427" t="n">
-        <v>-0.01105009338557674</v>
+        <v>-0.009468560616267507</v>
       </c>
       <c r="D427" t="n">
-        <v>-0.009478457810284745</v>
+        <v>-0.009942435650341743</v>
       </c>
     </row>
     <row r="428">
@@ -7273,13 +7273,13 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>-0.0003970560242194428</v>
+        <v>-0.002397465345886001</v>
       </c>
       <c r="C428" t="n">
-        <v>-0.009462212528087885</v>
+        <v>-0.006718679877444801</v>
       </c>
       <c r="D428" t="n">
-        <v>-0.006300615048333118</v>
+        <v>-0.008462659506350396</v>
       </c>
     </row>
     <row r="429">
@@ -7289,13 +7289,13 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>-0.01119369905377753</v>
+        <v>-0.01028528108973168</v>
       </c>
       <c r="C429" t="n">
-        <v>-0.01189676058127837</v>
+        <v>-0.01351941729080505</v>
       </c>
       <c r="D429" t="n">
-        <v>-0.01205897981218085</v>
+        <v>-0.009344831327154527</v>
       </c>
     </row>
     <row r="430">
@@ -7305,13 +7305,13 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>-0.008119964952643699</v>
+        <v>-0.006898212125488657</v>
       </c>
       <c r="C430" t="n">
-        <v>-0.005120000274685125</v>
+        <v>-0.003493980582506318</v>
       </c>
       <c r="D430" t="n">
-        <v>-0.002936808478482883</v>
+        <v>-0.006798050586116105</v>
       </c>
     </row>
     <row r="431">
@@ -7337,13 +7337,13 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>-0.00337537717409933</v>
+        <v>-0.002022368390460355</v>
       </c>
       <c r="C432" t="n">
-        <v>-0.004782852408000469</v>
+        <v>-0.00129327604823886</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.002452808828582382</v>
+        <v>-0.001801427835480366</v>
       </c>
     </row>
     <row r="433">
@@ -7401,13 +7401,13 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>-0.004986002253531375</v>
+        <v>-0.003645601876729555</v>
       </c>
       <c r="C436" t="n">
-        <v>-0.005152769026659764</v>
+        <v>-0.004509885470661928</v>
       </c>
       <c r="D436" t="n">
-        <v>-0.00282975467227437</v>
+        <v>-0.004427095076658542</v>
       </c>
     </row>
     <row r="437">
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>-0.01787699960552895</v>
+        <v>-0.01954837165209132</v>
       </c>
       <c r="C437" t="n">
-        <v>-0.02156550277636888</v>
+        <v>-0.02236020186279922</v>
       </c>
       <c r="D437" t="n">
-        <v>-0.02421373121758302</v>
+        <v>-0.01925051798257558</v>
       </c>
     </row>
     <row r="438">
@@ -7433,13 +7433,13 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>-0.01791022475283941</v>
+        <v>-0.01808713546367197</v>
       </c>
       <c r="C438" t="n">
-        <v>-0.021621806969986</v>
+        <v>-0.02201446594646935</v>
       </c>
       <c r="D438" t="n">
-        <v>-0.02403986529842956</v>
+        <v>-0.01922283555561229</v>
       </c>
     </row>
     <row r="439">
@@ -7449,13 +7449,13 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.0004230216188794695</v>
+        <v>0.001494757069356119</v>
       </c>
       <c r="C439" t="n">
-        <v>0.003502483801583125</v>
+        <v>4.531002555333301e-05</v>
       </c>
       <c r="D439" t="n">
-        <v>-0.0004683761653860587</v>
+        <v>0.00217743076238543</v>
       </c>
     </row>
     <row r="440">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>-0.009289345185425141</v>
+        <v>-0.009261595001672514</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.008771773115614572</v>
+        <v>-0.00831437990390437</v>
       </c>
       <c r="D442" t="n">
-        <v>-0.009468108341430493</v>
+        <v>-0.006267655766509754</v>
       </c>
     </row>
     <row r="443">
@@ -7513,13 +7513,13 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>-0.008833720251099773</v>
+        <v>-0.009275268784387166</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.008949465052467527</v>
+        <v>-0.007471840131018708</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.009905375124268671</v>
+        <v>-0.00676576600316868</v>
       </c>
     </row>
     <row r="444">
@@ -7529,13 +7529,13 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>-0.005390906104925312</v>
+        <v>-0.004989302567988445</v>
       </c>
       <c r="C444" t="n">
-        <v>-0.007307106201580024</v>
+        <v>-0.005605864263850477</v>
       </c>
       <c r="D444" t="n">
-        <v>-0.006469150664761987</v>
+        <v>-0.006794027847030509</v>
       </c>
     </row>
     <row r="445">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>-0.01409028623017252</v>
+        <v>-0.01007720046987515</v>
       </c>
       <c r="C445" t="n">
-        <v>-0.01141175140814402</v>
+        <v>-0.01072072353472021</v>
       </c>
       <c r="D445" t="n">
-        <v>-0.01283546600289402</v>
+        <v>-0.01090950707846816</v>
       </c>
     </row>
     <row r="446">
@@ -7561,13 +7561,13 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>-0.01389130543621763</v>
+        <v>-0.01039776549680503</v>
       </c>
       <c r="C446" t="n">
-        <v>-0.01063263919969347</v>
+        <v>-0.01176073832279638</v>
       </c>
       <c r="D446" t="n">
-        <v>-0.0127223731336884</v>
+        <v>-0.01088029277210145</v>
       </c>
     </row>
     <row r="447">
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>-0.01010362627725403</v>
+        <v>-0.009829586876611191</v>
       </c>
       <c r="C447" t="n">
-        <v>-0.01008652540443735</v>
+        <v>-0.01173666796675408</v>
       </c>
       <c r="D447" t="n">
-        <v>-0.01235023844975652</v>
+        <v>-0.01073666914847997</v>
       </c>
     </row>
     <row r="448">
@@ -7593,13 +7593,13 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>-0.009609813075740324</v>
+        <v>-0.01520848900506414</v>
       </c>
       <c r="C448" t="n">
-        <v>-0.01274947951494008</v>
+        <v>-0.01122854792785007</v>
       </c>
       <c r="D448" t="n">
-        <v>-0.009169862772792419</v>
+        <v>-0.01120818573574913</v>
       </c>
     </row>
     <row r="449">
@@ -7609,13 +7609,13 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>-0.009583319105848994</v>
+        <v>-0.01464872423645645</v>
       </c>
       <c r="C449" t="n">
-        <v>-0.01307917611697741</v>
+        <v>-0.01128051778534177</v>
       </c>
       <c r="D449" t="n">
-        <v>-0.009186105433291455</v>
+        <v>-0.01097281039355118</v>
       </c>
     </row>
     <row r="450">
@@ -7961,13 +7961,13 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>-0.01035128736819275</v>
+        <v>-0.01680139166907694</v>
       </c>
       <c r="C471" t="n">
-        <v>-0.01705469147774984</v>
+        <v>-0.01436273691076899</v>
       </c>
       <c r="D471" t="n">
-        <v>-0.01309274238682242</v>
+        <v>-0.01271960191012339</v>
       </c>
     </row>
     <row r="472">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>-0.009586547047168716</v>
+        <v>-0.01499994877884728</v>
       </c>
       <c r="C472" t="n">
-        <v>-0.0119166464650288</v>
+        <v>-0.01125163150538038</v>
       </c>
       <c r="D472" t="n">
-        <v>-0.009177766447208548</v>
+        <v>-0.01123032961969125</v>
       </c>
     </row>
     <row r="473">
@@ -8057,13 +8057,13 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-0.01611274200025742</v>
+        <v>-0.01299098584154773</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.01590193031451016</v>
+        <v>-0.02174237440167894</v>
       </c>
       <c r="D477" t="n">
-        <v>-0.02043857791511178</v>
+        <v>-0.01959451209088045</v>
       </c>
     </row>
     <row r="478">
@@ -8105,13 +8105,13 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>-0.01687702250786653</v>
+        <v>-0.01179023114373039</v>
       </c>
       <c r="C480" t="n">
-        <v>-0.01534862032974844</v>
+        <v>-0.0182910528337081</v>
       </c>
       <c r="D480" t="n">
-        <v>-0.01983434947480148</v>
+        <v>-0.01881507008065259</v>
       </c>
     </row>
     <row r="481">
@@ -8153,13 +8153,13 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>-0.006770691479185297</v>
+        <v>-0.007212398483591098</v>
       </c>
       <c r="C483" t="n">
-        <v>-0.007116718517895615</v>
+        <v>-0.006389070739772943</v>
       </c>
       <c r="D483" t="n">
-        <v>-0.007326335431524444</v>
+        <v>-0.007090595652030822</v>
       </c>
     </row>
     <row r="484">
@@ -8201,13 +8201,13 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>-0.006977061141705486</v>
+        <v>-0.007169315796539019</v>
       </c>
       <c r="C486" t="n">
-        <v>-0.007016322040139173</v>
+        <v>-0.006911628355534343</v>
       </c>
       <c r="D486" t="n">
-        <v>-0.00693930694992365</v>
+        <v>-0.007012745626840827</v>
       </c>
     </row>
     <row r="487">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>-0.007447574434575817</v>
+        <v>-0.00806658489588305</v>
       </c>
       <c r="C487" t="n">
-        <v>-0.009888924005639323</v>
+        <v>-0.008486323815030483</v>
       </c>
       <c r="D487" t="n">
-        <v>-0.006350212346439805</v>
+        <v>-0.009408236259339949</v>
       </c>
     </row>
     <row r="488">
@@ -8233,13 +8233,13 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>-0.01065081329319461</v>
+        <v>-0.01036463095595717</v>
       </c>
       <c r="C488" t="n">
-        <v>-0.01028084449918139</v>
+        <v>-0.01322303127777883</v>
       </c>
       <c r="D488" t="n">
-        <v>-0.01316909688534767</v>
+        <v>-0.01162299644234814</v>
       </c>
     </row>
     <row r="489">
@@ -8249,13 +8249,13 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>-0.01080246594583498</v>
+        <v>-0.008448798205314157</v>
       </c>
       <c r="C489" t="n">
-        <v>-0.008069281597702552</v>
+        <v>-0.01348350809100261</v>
       </c>
       <c r="D489" t="n">
-        <v>-0.01311477990722002</v>
+        <v>-0.007673738931422584</v>
       </c>
     </row>
     <row r="490">
@@ -8265,13 +8265,13 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>-0.009535432913563856</v>
+        <v>-0.01561115299602173</v>
       </c>
       <c r="C490" t="n">
-        <v>-0.01224594833932239</v>
+        <v>-0.01123201531804921</v>
       </c>
       <c r="D490" t="n">
-        <v>-0.009295538682974986</v>
+        <v>-0.01103745900930772</v>
       </c>
     </row>
     <row r="491">
@@ -8281,13 +8281,13 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>-0.0004234102042589506</v>
+        <v>0.001867648183948578</v>
       </c>
       <c r="C491" t="n">
-        <v>-0.002903142259222336</v>
+        <v>-0.0003613973215798211</v>
       </c>
       <c r="D491" t="n">
-        <v>-0.001182410105558698</v>
+        <v>0.002702273967209181</v>
       </c>
     </row>
     <row r="492">
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>-0.01011531434553584</v>
+        <v>-0.01343845811282651</v>
       </c>
       <c r="C492" t="n">
-        <v>-0.01330552092580096</v>
+        <v>-0.01148622831561708</v>
       </c>
       <c r="D492" t="n">
-        <v>-0.01224670432522465</v>
+        <v>-0.01473535088650346</v>
       </c>
     </row>
     <row r="493">
@@ -8313,13 +8313,13 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>-0.01094208404820284</v>
+        <v>-0.0144192878036253</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.01330628952248278</v>
+        <v>-0.01202522897905671</v>
       </c>
       <c r="D493" t="n">
-        <v>-0.01351412226108369</v>
+        <v>-0.01473721926765909</v>
       </c>
     </row>
     <row r="494">
@@ -8345,13 +8345,13 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.001965995931957083</v>
+        <v>-0.002672177742362448</v>
       </c>
       <c r="C495" t="n">
-        <v>-0.003480050563579163</v>
+        <v>-0.002523718102084032</v>
       </c>
       <c r="D495" t="n">
-        <v>-0.003627691257298819</v>
+        <v>-0.001931424551953063</v>
       </c>
     </row>
     <row r="496">
@@ -8441,13 +8441,13 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>-0.01751846300021252</v>
+        <v>-0.01563024481124949</v>
       </c>
       <c r="C501" t="n">
-        <v>-0.02052163114544037</v>
+        <v>-0.02064218291477</v>
       </c>
       <c r="D501" t="n">
-        <v>-0.01938619517219738</v>
+        <v>-0.01893831560634583</v>
       </c>
     </row>
     <row r="502">
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>-0.006178655492256954</v>
+        <v>-0.006489276232308551</v>
       </c>
       <c r="C503" t="n">
-        <v>-0.004963667595243871</v>
+        <v>-0.006027996072938828</v>
       </c>
       <c r="D503" t="n">
-        <v>-0.007984540069430317</v>
+        <v>-0.005894627374656094</v>
       </c>
     </row>
     <row r="504">
@@ -8489,13 +8489,13 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>-0.005943344409977199</v>
+        <v>-0.006668229164786766</v>
       </c>
       <c r="C504" t="n">
-        <v>-0.005255624122083885</v>
+        <v>-0.005909874944172985</v>
       </c>
       <c r="D504" t="n">
-        <v>-0.008204566828498207</v>
+        <v>-0.005512819934600984</v>
       </c>
     </row>
     <row r="505">
@@ -8569,13 +8569,13 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>-0.002231917769033894</v>
+        <v>-0.00494164654924102</v>
       </c>
       <c r="C509" t="n">
-        <v>-0.006246368217637199</v>
+        <v>-0.004443009147111325</v>
       </c>
       <c r="D509" t="n">
-        <v>-0.006177411048937933</v>
+        <v>-0.003660638288605426</v>
       </c>
     </row>
     <row r="510">
@@ -8617,13 +8617,13 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>-0.00442514123038434</v>
+        <v>-0.006310259244936571</v>
       </c>
       <c r="C512" t="n">
-        <v>-0.004616254066065025</v>
+        <v>-0.003979402626278453</v>
       </c>
       <c r="D512" t="n">
-        <v>-0.002828445655242187</v>
+        <v>-0.004543505422732288</v>
       </c>
     </row>
     <row r="513">
@@ -8713,13 +8713,13 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>-0.006749519253350137</v>
+        <v>-0.004980046215658049</v>
       </c>
       <c r="C518" t="n">
-        <v>-0.00792365553738022</v>
+        <v>-0.006365050945246773</v>
       </c>
       <c r="D518" t="n">
-        <v>-0.006065095759017267</v>
+        <v>-0.005024681317690332</v>
       </c>
     </row>
     <row r="519">
@@ -8729,13 +8729,13 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>-0.006859161522433372</v>
+        <v>-0.007175402994701208</v>
       </c>
       <c r="C519" t="n">
-        <v>-0.006877902040303059</v>
+        <v>-0.006661824460945731</v>
       </c>
       <c r="D519" t="n">
-        <v>-0.006808823305455238</v>
+        <v>-0.007075303351046921</v>
       </c>
     </row>
     <row r="520">
@@ -8809,13 +8809,13 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>-0.003118085528601605</v>
+        <v>-0.004030801902008838</v>
       </c>
       <c r="C524" t="n">
-        <v>-0.006140031850101577</v>
+        <v>-0.004016487727648838</v>
       </c>
       <c r="D524" t="n">
-        <v>-0.005787410835992554</v>
+        <v>-0.004018561370595341</v>
       </c>
     </row>
     <row r="525">
@@ -8841,13 +8841,13 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>-0.001868313143948222</v>
+        <v>-0.002354138154225039</v>
       </c>
       <c r="C526" t="n">
-        <v>-0.005098284194778165</v>
+        <v>-0.001526496078964912</v>
       </c>
       <c r="D526" t="n">
-        <v>-0.005681157438699358</v>
+        <v>-0.001583039008001395</v>
       </c>
     </row>
     <row r="527">
@@ -8857,13 +8857,13 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0.0001248687165489042</v>
+        <v>-0.00198216287219354</v>
       </c>
       <c r="C527" t="n">
-        <v>-0.005022551722217758</v>
+        <v>-0.002035218391332692</v>
       </c>
       <c r="D527" t="n">
-        <v>-0.005000081063624324</v>
+        <v>-0.00350692073238297</v>
       </c>
     </row>
     <row r="528">
@@ -8873,13 +8873,13 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>-0.0001374725598694213</v>
+        <v>-0.001338323174550249</v>
       </c>
       <c r="C528" t="n">
-        <v>-0.005350853746009064</v>
+        <v>-0.001433569110342496</v>
       </c>
       <c r="D528" t="n">
-        <v>-0.005378314320523254</v>
+        <v>-0.001785340747226419</v>
       </c>
     </row>
     <row r="529">
@@ -8905,13 +8905,13 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>-0.006614213031865069</v>
+        <v>-0.007029752930909779</v>
       </c>
       <c r="C530" t="n">
-        <v>-0.007153699063924572</v>
+        <v>-0.00661195437385762</v>
       </c>
       <c r="D530" t="n">
-        <v>-0.006788005944432574</v>
+        <v>-0.007154964930096893</v>
       </c>
     </row>
     <row r="531">
@@ -9033,13 +9033,13 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>-0.01373519826678031</v>
+        <v>-0.01271003129721198</v>
       </c>
       <c r="C538" t="n">
-        <v>-0.01218563132824499</v>
+        <v>-0.02509462179802544</v>
       </c>
       <c r="D538" t="n">
-        <v>-0.01890249451689359</v>
+        <v>-0.01237929140637564</v>
       </c>
     </row>
     <row r="539">
@@ -9049,13 +9049,13 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>-0.005285460453687692</v>
+        <v>-0.007043637315302288</v>
       </c>
       <c r="C539" t="n">
-        <v>-0.007184899694038334</v>
+        <v>-0.006581584673890901</v>
       </c>
       <c r="D539" t="n">
-        <v>-0.005475136062540593</v>
+        <v>-0.004987268741389491</v>
       </c>
     </row>
     <row r="540">
@@ -9065,13 +9065,13 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>-0.005250688959217709</v>
+        <v>-0.007000290771523992</v>
       </c>
       <c r="C540" t="n">
-        <v>-0.00756095134563894</v>
+        <v>-0.006818456017657021</v>
       </c>
       <c r="D540" t="n">
-        <v>-0.005709312698413663</v>
+        <v>-0.004873723432325817</v>
       </c>
     </row>
     <row r="541">
@@ -9129,13 +9129,13 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>-0.009615892412962321</v>
+        <v>-0.01510542716794821</v>
       </c>
       <c r="C544" t="n">
-        <v>-0.01290138594083283</v>
+        <v>-0.01124644675930365</v>
       </c>
       <c r="D544" t="n">
-        <v>-0.009207448414248011</v>
+        <v>-0.01106066552615353</v>
       </c>
     </row>
     <row r="545">
@@ -9145,13 +9145,13 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>-0.01019625885635128</v>
+        <v>-0.01034110484478729</v>
       </c>
       <c r="C545" t="n">
-        <v>-0.01218727710676898</v>
+        <v>-0.0128446342681719</v>
       </c>
       <c r="D545" t="n">
-        <v>-0.01173672363322522</v>
+        <v>-0.008488555578853516</v>
       </c>
     </row>
     <row r="546">
@@ -9161,13 +9161,13 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>-0.008630340322583772</v>
+        <v>-0.009427504723583169</v>
       </c>
       <c r="C546" t="n">
-        <v>-0.009232610604399893</v>
+        <v>-0.009731370980572914</v>
       </c>
       <c r="D546" t="n">
-        <v>-0.01034565093958174</v>
+        <v>-0.008799430418771074</v>
       </c>
     </row>
     <row r="547">
@@ -9177,13 +9177,13 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>-0.003569502905483022</v>
+        <v>-0.002955011835837572</v>
       </c>
       <c r="C547" t="n">
-        <v>-0.004486822122043153</v>
+        <v>-0.002235562655525872</v>
       </c>
       <c r="D547" t="n">
-        <v>-0.002713478764955689</v>
+        <v>-0.002063342608149039</v>
       </c>
     </row>
     <row r="548">
@@ -9241,13 +9241,13 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>-0.007854710180489843</v>
+        <v>-0.004430448084324251</v>
       </c>
       <c r="C551" t="n">
-        <v>-0.00583545699150282</v>
+        <v>-0.002795483880625941</v>
       </c>
       <c r="D551" t="n">
-        <v>-0.006328310608425259</v>
+        <v>-0.003531436871027607</v>
       </c>
     </row>
     <row r="552">
@@ -9257,13 +9257,13 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>-0.008102433040230153</v>
+        <v>-0.004958739498228355</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.009174273109959104</v>
+        <v>-0.004998104950600248</v>
       </c>
       <c r="D552" t="n">
-        <v>-0.006715961960195907</v>
+        <v>-0.005361243499949694</v>
       </c>
     </row>
     <row r="553">
@@ -9369,13 +9369,13 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>-0.01151732944311089</v>
+        <v>-0.01043996182066929</v>
       </c>
       <c r="C559" t="n">
-        <v>-0.01439970019303086</v>
+        <v>-0.01524950226320677</v>
       </c>
       <c r="D559" t="n">
-        <v>-0.01192344352750335</v>
+        <v>-0.01246126269848741</v>
       </c>
     </row>
     <row r="560">
@@ -9385,13 +9385,13 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>-0.002942392281640181</v>
+        <v>-0.002993904491842534</v>
       </c>
       <c r="C560" t="n">
-        <v>-0.004684512956542456</v>
+        <v>-0.001933888752612187</v>
       </c>
       <c r="D560" t="n">
-        <v>-0.002776076003525845</v>
+        <v>-0.001950708461117802</v>
       </c>
     </row>
     <row r="561">
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>-0.01132837164957097</v>
+        <v>-0.0106341418373112</v>
       </c>
       <c r="C563" t="n">
-        <v>-0.01193952374178905</v>
+        <v>-0.01515096546340767</v>
       </c>
       <c r="D563" t="n">
-        <v>-0.01434225923623616</v>
+        <v>-0.009604758922174567</v>
       </c>
     </row>
     <row r="564">
@@ -9465,13 +9465,13 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>-0.02034017937448859</v>
+        <v>-0.01790193793321822</v>
       </c>
       <c r="C565" t="n">
-        <v>-0.02519240762403616</v>
+        <v>-0.02220205135525016</v>
       </c>
       <c r="D565" t="n">
-        <v>-0.02499179456496464</v>
+        <v>-0.02915090938251219</v>
       </c>
     </row>
     <row r="566">
@@ -9481,13 +9481,13 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>-0.004121145950024174</v>
+        <v>-0.003160023207097538</v>
       </c>
       <c r="C566" t="n">
-        <v>-0.004551167148490567</v>
+        <v>-0.002161710240055259</v>
       </c>
       <c r="D566" t="n">
-        <v>-0.002374836219792232</v>
+        <v>-0.002176883582451918</v>
       </c>
     </row>
     <row r="567">
@@ -9497,13 +9497,13 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>-0.008427024696984621</v>
+        <v>-0.009269348180815741</v>
       </c>
       <c r="C567" t="n">
-        <v>-0.01035277714324538</v>
+        <v>-0.00856898081085089</v>
       </c>
       <c r="D567" t="n">
-        <v>-0.009469031772078439</v>
+        <v>-0.009688120240311435</v>
       </c>
     </row>
     <row r="568">
@@ -9561,13 +9561,13 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>-0.01124478114069524</v>
+        <v>-0.01010693740148587</v>
       </c>
       <c r="C571" t="n">
-        <v>-0.01167295904250171</v>
+        <v>-0.0114099034497427</v>
       </c>
       <c r="D571" t="n">
-        <v>-0.01307192436857961</v>
+        <v>-0.009398494841153342</v>
       </c>
     </row>
     <row r="572">
@@ -9577,13 +9577,13 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>-0.0119120912461925</v>
+        <v>-0.01045778058712525</v>
       </c>
       <c r="C572" t="n">
-        <v>-0.01203036921803521</v>
+        <v>-0.01097904247990178</v>
       </c>
       <c r="D572" t="n">
-        <v>-0.01311487238473335</v>
+        <v>-0.01178675143295942</v>
       </c>
     </row>
     <row r="573">
@@ -9609,13 +9609,13 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>-0.005247743420792754</v>
+        <v>-0.00533217509557706</v>
       </c>
       <c r="C574" t="n">
-        <v>-0.003173545696670747</v>
+        <v>-0.003971390347941462</v>
       </c>
       <c r="D574" t="n">
-        <v>-0.005114926162541486</v>
+        <v>-0.004001604787775355</v>
       </c>
     </row>
     <row r="575">
@@ -9625,13 +9625,13 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>-0.01134783938219518</v>
+        <v>-0.01069826561647744</v>
       </c>
       <c r="C575" t="n">
-        <v>-0.01080998411614507</v>
+        <v>-0.01378753169977563</v>
       </c>
       <c r="D575" t="n">
-        <v>-0.01234292651472403</v>
+        <v>-0.008674109648537424</v>
       </c>
     </row>
     <row r="576">
@@ -9673,13 +9673,13 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>-0.009570151916911743</v>
+        <v>-0.01518073610688755</v>
       </c>
       <c r="C578" t="n">
-        <v>-0.01303533415925347</v>
+        <v>-0.01122029742095212</v>
       </c>
       <c r="D578" t="n">
-        <v>-0.009175870091183928</v>
+        <v>-0.01124185635053573</v>
       </c>
     </row>
     <row r="579">
@@ -9801,13 +9801,13 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>-0.01505584919877509</v>
+        <v>-0.01198243521150452</v>
       </c>
       <c r="C586" t="n">
-        <v>-0.01331287808419684</v>
+        <v>-0.01257595807828262</v>
       </c>
       <c r="D586" t="n">
-        <v>-0.01597112519664334</v>
+        <v>-0.01394156284288019</v>
       </c>
     </row>
     <row r="587">
@@ -9817,13 +9817,13 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>-0.01433564376688474</v>
+        <v>-0.01359323230780205</v>
       </c>
       <c r="C587" t="n">
-        <v>-0.01400815744396498</v>
+        <v>-0.013920119292638</v>
       </c>
       <c r="D587" t="n">
-        <v>-0.01543748016530025</v>
+        <v>-0.01540024890214618</v>
       </c>
     </row>
     <row r="588">
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>-0.0108488144629346</v>
+        <v>-0.007488784278608508</v>
       </c>
       <c r="C592" t="n">
-        <v>-0.0123969769662771</v>
+        <v>-0.01336680715878956</v>
       </c>
       <c r="D592" t="n">
-        <v>-0.01262241570317431</v>
+        <v>-0.01040677633566975</v>
       </c>
     </row>
     <row r="593">
@@ -9945,13 +9945,13 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>-0.003369083674619484</v>
+        <v>-0.002208668815534946</v>
       </c>
       <c r="C595" t="n">
-        <v>-0.005754923846584756</v>
+        <v>-0.002527109018469364</v>
       </c>
       <c r="D595" t="n">
-        <v>-0.003075963072074319</v>
+        <v>-0.001918684231739856</v>
       </c>
     </row>
     <row r="596">
@@ -9961,13 +9961,13 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>-0.01152963869446328</v>
+        <v>-0.01058456034156971</v>
       </c>
       <c r="C596" t="n">
-        <v>-0.01052699988403865</v>
+        <v>-0.01381287047282466</v>
       </c>
       <c r="D596" t="n">
-        <v>-0.01234654206570686</v>
+        <v>-0.008611799754442259</v>
       </c>
     </row>
     <row r="597">
@@ -9977,13 +9977,13 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>-0.001906104771296412</v>
+        <v>0.002156206612334266</v>
       </c>
       <c r="C597" t="n">
-        <v>0.003327401905164689</v>
+        <v>-3.4384446760555e-05</v>
       </c>
       <c r="D597" t="n">
-        <v>0.0001143689099116071</v>
+        <v>0.0005399112774110994</v>
       </c>
     </row>
     <row r="598">
